--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf18-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf18-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.638861</v>
+        <v>0.438971</v>
       </c>
       <c r="H2">
-        <v>1.277722</v>
+        <v>0.877942</v>
       </c>
       <c r="I2">
-        <v>0.1058208177499626</v>
+        <v>0.08625018088683029</v>
       </c>
       <c r="J2">
-        <v>0.07631084478658147</v>
+        <v>0.06166296044045714</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.8651055000000001</v>
+        <v>0.09207700000000001</v>
       </c>
       <c r="N2">
-        <v>1.730211</v>
+        <v>0.184154</v>
       </c>
       <c r="O2">
-        <v>0.418762651604452</v>
+        <v>0.0789959771480734</v>
       </c>
       <c r="P2">
-        <v>0.3305860461170526</v>
+        <v>0.05545240531440215</v>
       </c>
       <c r="Q2">
-        <v>0.5526821648355</v>
+        <v>0.040419132767</v>
       </c>
       <c r="R2">
-        <v>2.210728659342</v>
+        <v>0.161676531068</v>
       </c>
       <c r="S2">
-        <v>0.04431380623592578</v>
+        <v>0.006813417318353242</v>
       </c>
       <c r="T2">
-        <v>0.02522730045384806</v>
+        <v>0.003419359475230175</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.638861</v>
+        <v>0.438971</v>
       </c>
       <c r="H3">
-        <v>1.277722</v>
+        <v>0.877942</v>
       </c>
       <c r="I3">
-        <v>0.1058208177499626</v>
+        <v>0.08625018088683029</v>
       </c>
       <c r="J3">
-        <v>0.07631084478658147</v>
+        <v>0.06166296044045714</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.969268</v>
       </c>
       <c r="O3">
-        <v>0.4791009269984018</v>
+        <v>0.8491451975864605</v>
       </c>
       <c r="P3">
-        <v>0.5673288217343945</v>
+        <v>0.8941052196698643</v>
       </c>
       <c r="Q3">
-        <v>0.6323165079159999</v>
+        <v>0.4344741810759999</v>
       </c>
       <c r="R3">
-        <v>3.793899047496</v>
+        <v>2.606845086456</v>
       </c>
       <c r="S3">
-        <v>0.050698851879736</v>
+        <v>0.07323892689101545</v>
       </c>
       <c r="T3">
-        <v>0.04329334165832752</v>
+        <v>0.05513317479010908</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.638861</v>
+        <v>0.438971</v>
       </c>
       <c r="H4">
-        <v>1.277722</v>
+        <v>0.877942</v>
       </c>
       <c r="I4">
-        <v>0.1058208177499626</v>
+        <v>0.08625018088683029</v>
       </c>
       <c r="J4">
-        <v>0.07631084478658147</v>
+        <v>0.06166296044045714</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,90 +685,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.09870899999999999</v>
+        <v>0.083758</v>
       </c>
       <c r="N4">
-        <v>0.197418</v>
+        <v>0.167516</v>
       </c>
       <c r="O4">
-        <v>0.04778104240144566</v>
+        <v>0.07185882526546619</v>
       </c>
       <c r="P4">
-        <v>0.0377200445797283</v>
+        <v>0.05044237501573352</v>
       </c>
       <c r="Q4">
-        <v>0.06306133044899999</v>
+        <v>0.036767333018</v>
       </c>
       <c r="R4">
-        <v>0.252245321796</v>
+        <v>0.147069332072</v>
       </c>
       <c r="S4">
-        <v>0.005056228979866614</v>
+        <v>0.006197836677461589</v>
       </c>
       <c r="T4">
-        <v>0.00287844846726658</v>
+        <v>0.003110426175117879</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.638861</v>
+        <v>3.515809666666667</v>
       </c>
       <c r="H5">
-        <v>1.277722</v>
+        <v>10.547429</v>
       </c>
       <c r="I5">
-        <v>0.1058208177499626</v>
+        <v>0.6907955644306037</v>
       </c>
       <c r="J5">
-        <v>0.07631084478658147</v>
+        <v>0.7408071343841968</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.1122906666666667</v>
+        <v>0.09207700000000001</v>
       </c>
       <c r="N5">
-        <v>0.336872</v>
+        <v>0.184154</v>
       </c>
       <c r="O5">
-        <v>0.0543553789957005</v>
+        <v>0.0789959771480734</v>
       </c>
       <c r="P5">
-        <v>0.06436508756882468</v>
+        <v>0.05545240531440215</v>
       </c>
       <c r="Q5">
-        <v>0.07173812759733333</v>
+        <v>0.3237252066776667</v>
       </c>
       <c r="R5">
-        <v>0.430428765584</v>
+        <v>1.942351240066</v>
       </c>
       <c r="S5">
-        <v>0.005751930654434166</v>
+        <v>0.05457007062175043</v>
       </c>
       <c r="T5">
-        <v>0.004911754207139305</v>
+        <v>0.04107953747567326</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>10.547429</v>
       </c>
       <c r="I6">
-        <v>0.5823580622074128</v>
+        <v>0.6907955644306037</v>
       </c>
       <c r="J6">
-        <v>0.6299361029367015</v>
+        <v>0.7408071343841968</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8651055000000001</v>
+        <v>0.9897559999999999</v>
       </c>
       <c r="N6">
-        <v>1.730211</v>
+        <v>2.969268</v>
       </c>
       <c r="O6">
-        <v>0.418762651604452</v>
+        <v>0.8491451975864605</v>
       </c>
       <c r="P6">
-        <v>0.3305860461170526</v>
+        <v>0.8941052196698643</v>
       </c>
       <c r="Q6">
-        <v>3.041546279586501</v>
+        <v>3.479793712441333</v>
       </c>
       <c r="R6">
-        <v>18.249277677519</v>
+        <v>31.318143411972</v>
       </c>
       <c r="S6">
-        <v>0.2438698063132066</v>
+        <v>0.5865857360502755</v>
       </c>
       <c r="T6">
-        <v>0.2082480855762288</v>
+        <v>0.662359525621585</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>10.547429</v>
       </c>
       <c r="I7">
-        <v>0.5823580622074128</v>
+        <v>0.6907955644306037</v>
       </c>
       <c r="J7">
-        <v>0.6299361029367015</v>
+        <v>0.7408071343841968</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9897559999999999</v>
+        <v>0.083758</v>
       </c>
       <c r="N7">
-        <v>2.969268</v>
+        <v>0.167516</v>
       </c>
       <c r="O7">
-        <v>0.4791009269984018</v>
+        <v>0.07185882526546619</v>
       </c>
       <c r="P7">
-        <v>0.5673288217343945</v>
+        <v>0.05044237501573352</v>
       </c>
       <c r="Q7">
-        <v>3.479793712441333</v>
+        <v>0.2944771860606667</v>
       </c>
       <c r="R7">
-        <v>31.318143411972</v>
+        <v>1.766863116364</v>
       </c>
       <c r="S7">
-        <v>0.2790082874485644</v>
+        <v>0.04963975775857785</v>
       </c>
       <c r="T7">
-        <v>0.3573809070470351</v>
+        <v>0.03736807128693855</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,87 +906,87 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>3.515809666666667</v>
+        <v>0.242074</v>
       </c>
       <c r="H8">
-        <v>10.547429</v>
+        <v>0.7262219999999999</v>
       </c>
       <c r="I8">
-        <v>0.5823580622074128</v>
+        <v>0.04756333855311297</v>
       </c>
       <c r="J8">
-        <v>0.6299361029367015</v>
+        <v>0.05100678456776149</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.09870899999999999</v>
+        <v>0.09207700000000001</v>
       </c>
       <c r="N8">
-        <v>0.197418</v>
+        <v>0.184154</v>
       </c>
       <c r="O8">
-        <v>0.04778104240144566</v>
+        <v>0.0789959771480734</v>
       </c>
       <c r="P8">
-        <v>0.0377200445797283</v>
+        <v>0.05545240531440215</v>
       </c>
       <c r="Q8">
-        <v>0.347042056387</v>
+        <v>0.022289447698</v>
       </c>
       <c r="R8">
-        <v>2.082252338322</v>
+        <v>0.133736686188</v>
       </c>
       <c r="S8">
-        <v>0.02782567526315612</v>
+        <v>0.00375731240542779</v>
       </c>
       <c r="T8">
-        <v>0.0237612178851527</v>
+        <v>0.002828448891635903</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>3.515809666666667</v>
+        <v>0.242074</v>
       </c>
       <c r="H9">
-        <v>10.547429</v>
+        <v>0.7262219999999999</v>
       </c>
       <c r="I9">
-        <v>0.5823580622074128</v>
+        <v>0.04756333855311297</v>
       </c>
       <c r="J9">
-        <v>0.6299361029367015</v>
+        <v>0.05100678456776149</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1122906666666667</v>
+        <v>0.9897559999999999</v>
       </c>
       <c r="N9">
-        <v>0.336872</v>
+        <v>2.969268</v>
       </c>
       <c r="O9">
-        <v>0.0543553789957005</v>
+        <v>0.8491451975864605</v>
       </c>
       <c r="P9">
-        <v>0.06436508756882468</v>
+        <v>0.8941052196698643</v>
       </c>
       <c r="Q9">
-        <v>0.3947926113431112</v>
+        <v>0.2395941939439999</v>
       </c>
       <c r="R9">
-        <v>3.553133502088</v>
+        <v>2.156347745495999</v>
       </c>
       <c r="S9">
-        <v>0.03165429318248565</v>
+        <v>0.04038818051355483</v>
       </c>
       <c r="T9">
-        <v>0.04054589242828496</v>
+        <v>0.04560543232061183</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3944533333333333</v>
+        <v>0.242074</v>
       </c>
       <c r="H10">
-        <v>1.18336</v>
+        <v>0.7262219999999999</v>
       </c>
       <c r="I10">
-        <v>0.06533717709725886</v>
+        <v>0.04756333855311297</v>
       </c>
       <c r="J10">
-        <v>0.0706751556963479</v>
+        <v>0.05100678456776149</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8651055000000001</v>
+        <v>0.083758</v>
       </c>
       <c r="N10">
-        <v>1.730211</v>
+        <v>0.167516</v>
       </c>
       <c r="O10">
-        <v>0.418762651604452</v>
+        <v>0.07185882526546619</v>
       </c>
       <c r="P10">
-        <v>0.3305860461170526</v>
+        <v>0.05044237501573352</v>
       </c>
       <c r="Q10">
-        <v>0.34124374816</v>
+        <v>0.020275634092</v>
       </c>
       <c r="R10">
-        <v>2.04746248896</v>
+        <v>0.121653804552</v>
       </c>
       <c r="S10">
-        <v>0.0273607695295978</v>
+        <v>0.003417845634130356</v>
       </c>
       <c r="T10">
-        <v>0.02336422028036274</v>
+        <v>0.002572903355513754</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3944533333333333</v>
+        <v>0.5918005</v>
       </c>
       <c r="H11">
-        <v>1.18336</v>
+        <v>1.183601</v>
       </c>
       <c r="I11">
-        <v>0.06533717709725886</v>
+        <v>0.1162785244900383</v>
       </c>
       <c r="J11">
-        <v>0.0706751556963479</v>
+        <v>0.08313116543038777</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.9897559999999999</v>
+        <v>0.09207700000000001</v>
       </c>
       <c r="N11">
-        <v>2.969268</v>
+        <v>0.184154</v>
       </c>
       <c r="O11">
-        <v>0.4791009269984018</v>
+        <v>0.0789959771480734</v>
       </c>
       <c r="P11">
-        <v>0.5673288217343945</v>
+        <v>0.05545240531440215</v>
       </c>
       <c r="Q11">
-        <v>0.3904125533866666</v>
+        <v>0.0544912146385</v>
       </c>
       <c r="R11">
-        <v>3.513712980479999</v>
+        <v>0.217964858554</v>
       </c>
       <c r="S11">
-        <v>0.03130310211475547</v>
+        <v>0.00918553566342676</v>
       </c>
       <c r="T11">
-        <v>0.04009605280710393</v>
+        <v>0.004609823079704479</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3944533333333333</v>
+        <v>0.5918005</v>
       </c>
       <c r="H12">
-        <v>1.18336</v>
+        <v>1.183601</v>
       </c>
       <c r="I12">
-        <v>0.06533717709725886</v>
+        <v>0.1162785244900383</v>
       </c>
       <c r="J12">
-        <v>0.0706751556963479</v>
+        <v>0.08313116543038777</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.09870899999999999</v>
+        <v>0.9897559999999999</v>
       </c>
       <c r="N12">
-        <v>0.197418</v>
+        <v>2.969268</v>
       </c>
       <c r="O12">
-        <v>0.04778104240144566</v>
+        <v>0.8491451975864605</v>
       </c>
       <c r="P12">
-        <v>0.0377200445797283</v>
+        <v>0.8941052196698643</v>
       </c>
       <c r="Q12">
-        <v>0.03893609408</v>
+        <v>0.5857380956779998</v>
       </c>
       <c r="R12">
-        <v>0.23361656448</v>
+        <v>3.514428574067999</v>
       </c>
       <c r="S12">
-        <v>0.00312187842927489</v>
+        <v>0.09873735065315566</v>
       </c>
       <c r="T12">
-        <v>0.002665870023545481</v>
+        <v>0.0743280089285487</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3944533333333333</v>
+        <v>0.5918005</v>
       </c>
       <c r="H13">
-        <v>1.18336</v>
+        <v>1.183601</v>
       </c>
       <c r="I13">
-        <v>0.06533717709725886</v>
+        <v>0.1162785244900383</v>
       </c>
       <c r="J13">
-        <v>0.0706751556963479</v>
+        <v>0.08313116543038777</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1122906666666667</v>
+        <v>0.083758</v>
       </c>
       <c r="N13">
-        <v>0.336872</v>
+        <v>0.167516</v>
       </c>
       <c r="O13">
-        <v>0.0543553789957005</v>
+        <v>0.07185882526546619</v>
       </c>
       <c r="P13">
-        <v>0.06436508756882468</v>
+        <v>0.05044237501573352</v>
       </c>
       <c r="Q13">
-        <v>0.04429342776888889</v>
+        <v>0.049568026279</v>
       </c>
       <c r="R13">
-        <v>0.39864084992</v>
+        <v>0.198272105116</v>
       </c>
       <c r="S13">
-        <v>0.003551427023630708</v>
+        <v>0.008355638173455894</v>
       </c>
       <c r="T13">
-        <v>0.004549012585335751</v>
+        <v>0.004193333422134602</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.7290775</v>
+        <v>0.1678953333333333</v>
       </c>
       <c r="H14">
-        <v>1.458155</v>
+        <v>0.503686</v>
       </c>
       <c r="I14">
-        <v>0.1207642621056823</v>
+        <v>0.03298851830771204</v>
       </c>
       <c r="J14">
-        <v>0.08708705014062347</v>
+        <v>0.03537679014378181</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.8651055000000001</v>
+        <v>0.09207700000000001</v>
       </c>
       <c r="N14">
-        <v>1.730211</v>
+        <v>0.184154</v>
       </c>
       <c r="O14">
-        <v>0.418762651604452</v>
+        <v>0.0789959771480734</v>
       </c>
       <c r="P14">
-        <v>0.3305860461170526</v>
+        <v>0.05545240531440215</v>
       </c>
       <c r="Q14">
-        <v>0.6307289551762501</v>
+        <v>0.01545929860733333</v>
       </c>
       <c r="R14">
-        <v>2.522915820705</v>
+        <v>0.092755791644</v>
       </c>
       <c r="S14">
-        <v>0.05057156261843058</v>
+        <v>0.002605960238384821</v>
       </c>
       <c r="T14">
-        <v>0.02878976357398622</v>
+        <v>0.001961728105775536</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.7290775</v>
+        <v>0.1678953333333333</v>
       </c>
       <c r="H15">
-        <v>1.458155</v>
+        <v>0.503686</v>
       </c>
       <c r="I15">
-        <v>0.1207642621056823</v>
+        <v>0.03298851830771204</v>
       </c>
       <c r="J15">
-        <v>0.08708705014062347</v>
+        <v>0.03537679014378181</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,27 +1373,27 @@
         <v>2.969268</v>
       </c>
       <c r="O15">
-        <v>0.4791009269984018</v>
+        <v>0.8491451975864605</v>
       </c>
       <c r="P15">
-        <v>0.5673288217343945</v>
+        <v>0.8941052196698643</v>
       </c>
       <c r="Q15">
-        <v>0.72160883009</v>
+        <v>0.1661754135386666</v>
       </c>
       <c r="R15">
-        <v>4.32965298054</v>
+        <v>1.495578721848</v>
       </c>
       <c r="S15">
-        <v>0.05785826992311038</v>
+        <v>0.02801204189648671</v>
       </c>
       <c r="T15">
-        <v>0.04940699354460405</v>
+        <v>0.03163057272272073</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1405,22 +1405,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.7290775</v>
+        <v>0.1678953333333333</v>
       </c>
       <c r="H16">
-        <v>1.458155</v>
+        <v>0.503686</v>
       </c>
       <c r="I16">
-        <v>0.1207642621056823</v>
+        <v>0.03298851830771204</v>
       </c>
       <c r="J16">
-        <v>0.08708705014062347</v>
+        <v>0.03537679014378181</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,33 +1429,33 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.09870899999999999</v>
+        <v>0.083758</v>
       </c>
       <c r="N16">
-        <v>0.197418</v>
+        <v>0.167516</v>
       </c>
       <c r="O16">
-        <v>0.04778104240144566</v>
+        <v>0.07185882526546619</v>
       </c>
       <c r="P16">
-        <v>0.0377200445797283</v>
+        <v>0.05044237501573352</v>
       </c>
       <c r="Q16">
-        <v>0.07196651094749999</v>
+        <v>0.01406257732933333</v>
       </c>
       <c r="R16">
-        <v>0.28786604379</v>
+        <v>0.08437546397599999</v>
       </c>
       <c r="S16">
-        <v>0.005770242328250906</v>
+        <v>0.002370516172840512</v>
       </c>
       <c r="T16">
-        <v>0.003284927413621351</v>
+        <v>0.001784489315285547</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.7290775</v>
+        <v>0.1329576666666667</v>
       </c>
       <c r="H17">
-        <v>1.458155</v>
+        <v>0.398873</v>
       </c>
       <c r="I17">
-        <v>0.1207642621056823</v>
+        <v>0.02612387333170275</v>
       </c>
       <c r="J17">
-        <v>0.08708705014062347</v>
+        <v>0.02801516503341503</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.1122906666666667</v>
+        <v>0.09207700000000001</v>
       </c>
       <c r="N17">
-        <v>0.336872</v>
+        <v>0.184154</v>
       </c>
       <c r="O17">
-        <v>0.0543553789957005</v>
+        <v>0.0789959771480734</v>
       </c>
       <c r="P17">
-        <v>0.06436508756882468</v>
+        <v>0.05545240531440215</v>
       </c>
       <c r="Q17">
-        <v>0.08186859852666667</v>
+        <v>0.01224234307366667</v>
       </c>
       <c r="R17">
-        <v>0.49121159116</v>
+        <v>0.07345405844200001</v>
       </c>
       <c r="S17">
-        <v>0.006564187235890476</v>
+        <v>0.002063680900730354</v>
       </c>
       <c r="T17">
-        <v>0.005605365608411856</v>
+        <v>0.001553508286382797</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1329576666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.398873</v>
+      </c>
+      <c r="I18">
+        <v>0.02612387333170275</v>
+      </c>
+      <c r="J18">
+        <v>0.02801516503341503</v>
+      </c>
+      <c r="K18">
         <v>3</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.3415759999999999</v>
-      </c>
-      <c r="H18">
-        <v>1.024728</v>
-      </c>
-      <c r="I18">
-        <v>0.05657858539457128</v>
-      </c>
-      <c r="J18">
-        <v>0.06120099627028731</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8651055000000001</v>
+        <v>0.9897559999999999</v>
       </c>
       <c r="N18">
-        <v>1.730211</v>
+        <v>2.969268</v>
       </c>
       <c r="O18">
-        <v>0.418762651604452</v>
+        <v>0.8491451975864605</v>
       </c>
       <c r="P18">
-        <v>0.3305860461170526</v>
+        <v>0.8941052196698643</v>
       </c>
       <c r="Q18">
-        <v>0.295499276268</v>
+        <v>0.1315956483293333</v>
       </c>
       <c r="R18">
-        <v>1.772995657608</v>
+        <v>1.184360834964</v>
       </c>
       <c r="S18">
-        <v>0.02369299844385959</v>
+        <v>0.02218296158197239</v>
       </c>
       <c r="T18">
-        <v>0.02023219537541876</v>
+        <v>0.02504850528628905</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,427 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.3415759999999999</v>
+        <v>0.1329576666666667</v>
       </c>
       <c r="H19">
-        <v>1.024728</v>
+        <v>0.398873</v>
       </c>
       <c r="I19">
-        <v>0.05657858539457128</v>
+        <v>0.02612387333170275</v>
       </c>
       <c r="J19">
-        <v>0.06120099627028731</v>
+        <v>0.02801516503341503</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.9897559999999999</v>
+        <v>0.083758</v>
       </c>
       <c r="N19">
-        <v>2.969268</v>
+        <v>0.167516</v>
       </c>
       <c r="O19">
-        <v>0.4791009269984018</v>
+        <v>0.07185882526546619</v>
       </c>
       <c r="P19">
-        <v>0.5673288217343945</v>
+        <v>0.05044237501573352</v>
       </c>
       <c r="Q19">
-        <v>0.3380768954559999</v>
+        <v>0.01113626824466667</v>
       </c>
       <c r="R19">
-        <v>3.042692059103999</v>
+        <v>0.066817609468</v>
       </c>
       <c r="S19">
-        <v>0.02710685271079733</v>
+        <v>0.001877230849</v>
       </c>
       <c r="T19">
-        <v>0.03472108910299317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.3415759999999999</v>
-      </c>
-      <c r="H20">
-        <v>1.024728</v>
-      </c>
-      <c r="I20">
-        <v>0.05657858539457128</v>
-      </c>
-      <c r="J20">
-        <v>0.06120099627028731</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.09870899999999999</v>
-      </c>
-      <c r="N20">
-        <v>0.197418</v>
-      </c>
-      <c r="O20">
-        <v>0.04778104240144566</v>
-      </c>
-      <c r="P20">
-        <v>0.0377200445797283</v>
-      </c>
-      <c r="Q20">
-        <v>0.03371662538399999</v>
-      </c>
-      <c r="R20">
-        <v>0.202299752304</v>
-      </c>
-      <c r="S20">
-        <v>0.002703383787751824</v>
-      </c>
-      <c r="T20">
-        <v>0.002308504307639023</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.3415759999999999</v>
-      </c>
-      <c r="H21">
-        <v>1.024728</v>
-      </c>
-      <c r="I21">
-        <v>0.05657858539457128</v>
-      </c>
-      <c r="J21">
-        <v>0.06120099627028731</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.1122906666666667</v>
-      </c>
-      <c r="N21">
-        <v>0.336872</v>
-      </c>
-      <c r="O21">
-        <v>0.0543553789957005</v>
-      </c>
-      <c r="P21">
-        <v>0.06436508756882468</v>
-      </c>
-      <c r="Q21">
-        <v>0.03835579675733333</v>
-      </c>
-      <c r="R21">
-        <v>0.345202170816</v>
-      </c>
-      <c r="S21">
-        <v>0.003075350452162527</v>
-      </c>
-      <c r="T21">
-        <v>0.003939207484236355</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.4174183333333333</v>
-      </c>
-      <c r="H22">
-        <v>1.252255</v>
-      </c>
-      <c r="I22">
-        <v>0.06914109544511213</v>
-      </c>
-      <c r="J22">
-        <v>0.07478985016945827</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.8651055000000001</v>
-      </c>
-      <c r="N22">
-        <v>1.730211</v>
-      </c>
-      <c r="O22">
-        <v>0.418762651604452</v>
-      </c>
-      <c r="P22">
-        <v>0.3305860461170526</v>
-      </c>
-      <c r="Q22">
-        <v>0.3611108959675</v>
-      </c>
-      <c r="R22">
-        <v>2.166665375805</v>
-      </c>
-      <c r="S22">
-        <v>0.02895370846343166</v>
-      </c>
-      <c r="T22">
-        <v>0.02472448085720799</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.4174183333333333</v>
-      </c>
-      <c r="H23">
-        <v>1.252255</v>
-      </c>
-      <c r="I23">
-        <v>0.06914109544511213</v>
-      </c>
-      <c r="J23">
-        <v>0.07478985016945827</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0.9897559999999999</v>
-      </c>
-      <c r="N23">
-        <v>2.969268</v>
-      </c>
-      <c r="O23">
-        <v>0.4791009269984018</v>
-      </c>
-      <c r="P23">
-        <v>0.5673288217343945</v>
-      </c>
-      <c r="Q23">
-        <v>0.4131422999266666</v>
-      </c>
-      <c r="R23">
-        <v>3.718280699339999</v>
-      </c>
-      <c r="S23">
-        <v>0.03312556292143819</v>
-      </c>
-      <c r="T23">
-        <v>0.04243043757433066</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.4174183333333333</v>
-      </c>
-      <c r="H24">
-        <v>1.252255</v>
-      </c>
-      <c r="I24">
-        <v>0.06914109544511213</v>
-      </c>
-      <c r="J24">
-        <v>0.07478985016945827</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.09870899999999999</v>
-      </c>
-      <c r="N24">
-        <v>0.197418</v>
-      </c>
-      <c r="O24">
-        <v>0.04778104240144566</v>
-      </c>
-      <c r="P24">
-        <v>0.0377200445797283</v>
-      </c>
-      <c r="Q24">
-        <v>0.04120294626499999</v>
-      </c>
-      <c r="R24">
-        <v>0.24721767759</v>
-      </c>
-      <c r="S24">
-        <v>0.003303633613145304</v>
-      </c>
-      <c r="T24">
-        <v>0.002821076482503166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.4174183333333333</v>
-      </c>
-      <c r="H25">
-        <v>1.252255</v>
-      </c>
-      <c r="I25">
-        <v>0.06914109544511213</v>
-      </c>
-      <c r="J25">
-        <v>0.07478985016945827</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.1122906666666667</v>
-      </c>
-      <c r="N25">
-        <v>0.336872</v>
-      </c>
-      <c r="O25">
-        <v>0.0543553789957005</v>
-      </c>
-      <c r="P25">
-        <v>0.06436508756882468</v>
-      </c>
-      <c r="Q25">
-        <v>0.04687218292888888</v>
-      </c>
-      <c r="R25">
-        <v>0.42184964636</v>
-      </c>
-      <c r="S25">
-        <v>0.003758190447096972</v>
-      </c>
-      <c r="T25">
-        <v>0.004813855255416459</v>
+        <v>0.001413151460743186</v>
       </c>
     </row>
   </sheetData>
